--- a/results/table2/RRT.xlsx
+++ b/results/table2/RRT.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Grouped by race_white</t>
+          <t>Grouped by English Proficiency</t>
         </is>
       </c>
       <c r="D1" s="1" t="n"/>
@@ -488,12 +488,12 @@
       <c r="B2" s="1" t="inlineStr"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Racial-Ethnic Group</t>
+          <t>Limited</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Proficient</t>
         </is>
       </c>
     </row>
@@ -505,49 +505,53 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>521</v>
+        <v>331</v>
       </c>
       <c r="D4" t="n">
-        <v>2593</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Year of Admission, n (%)</t>
+          <t>Sex , n (%)</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>2008 - 2010</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>216 (41.5)</t>
+          <t>151 (45.6)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>909 (35.1)</t>
+          <t>1493 (42.4)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Health Insurance, n (%)</t>
+        </is>
+      </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>2011 - 2013</t>
+          <t>Medicare</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>126 (24.2)</t>
+          <t>153 (46.2)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>624 (24.1)</t>
+          <t>1746 (49.6)</t>
         </is>
       </c>
     </row>
@@ -555,17 +559,17 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>2014 - 2016</t>
+          <t>Medicaid</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>98 (18.8)</t>
+          <t>36 (10.9)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>597 (23.0)</t>
+          <t>193 (5.5)</t>
         </is>
       </c>
     </row>
@@ -573,126 +577,134 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>2017 - 2019</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>81 (15.5)</t>
+          <t>142 (42.9)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>463 (17.9)</t>
+          <t>1579 (44.9)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Sex , n (%)</t>
+          <t>Race-Ethnicity Group, n (%)</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>White</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>244 (46.8)</t>
+          <t>113 (34.1)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1101 (42.5)</t>
+          <t>2477 (70.4)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Health Insurance, n (%)</t>
+          <t>Elective Admission, n (%)</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Medicare</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>214 (41.1)</t>
+          <t>39 (11.8)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1358 (52.4)</t>
+          <t>496 (14.1)</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Major Surgery, n (%)</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Medicaid</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>43 (8.3)</t>
+          <t>126 (38.1)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>139 (5.4)</t>
+          <t>1339 (38.1)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>In-Hospital Mortality, n (%)</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>264 (50.7)</t>
+          <t>79 (23.9)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1096 (42.3)</t>
+          <t>896 (25.5)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>English Proficiency, n (%)</t>
+          <t>MV initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>133 (25.5)</t>
+          <t>214 (64.7)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>114 (4.4)</t>
+          <t>2254 (64.1)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Elective Admission, n (%)</t>
+          <t>RRT initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -702,129 +714,129 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>51 (9.8)</t>
+          <t>21 (6.3)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>419 (16.2)</t>
+          <t>231 (6.6)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Major Surgery, n (%)</t>
+          <t>Vasopressor initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>160 (30.7)</t>
+          <t>181 (54.7)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1050 (40.5)</t>
+          <t>1890 (53.7)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>In-Hospital Mortality, n (%)</t>
+          <t>Hypertension, n (%)</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>125 (24.0)</t>
+          <t>225 (68.0)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>585 (22.6)</t>
+          <t>2401 (68.2)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>MV initiated until the cohort day, n (%)</t>
+          <t>Congestive Heart Failure, n (%)</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>284 (54.5)</t>
+          <t>138 (41.7)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1420 (54.8)</t>
+          <t>1280 (36.4)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated until the cohort day, n (%)</t>
+          <t>COPD, n (%)</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31 (6.0)</t>
+          <t>74 (22.4)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>143 (5.5)</t>
+          <t>908 (25.8)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated until the cohort day, n (%)</t>
+          <t>Asthma, n (%)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>254 (48.8)</t>
+          <t>5 (1.5)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1384 (53.4)</t>
+          <t>36 (1.0)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Hypertension, n (%)</t>
+          <t>Coronary Artery Disease, n (%)</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -834,63 +846,59 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>387 (74.3)</t>
+          <t>116 (35.0)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1769 (68.2)</t>
+          <t>1309 (37.2)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Congestive Heart Failure, n (%)</t>
+          <t>CKD Stage, n (%)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>213 (40.9)</t>
+          <t>315 (95.2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>939 (36.2)</t>
+          <t>3275 (93.1)</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>COPD, n (%)</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>138 (26.5)</t>
+          <t>16 (4.8)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>644 (24.8)</t>
+          <t>243 (6.9)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Asthma, n (%)</t>
+          <t>Diabetes Type, n (%)</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
@@ -900,81 +908,77 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2 (0.4)</t>
+          <t>5 (1.5)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>32 (1.2)</t>
+          <t>80 (2.3)</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Coronary Artery Disease, n (%)</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>123 (37.2)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1085 (30.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>203 (61.3)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2353 (66.9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>174 (33.4)</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>972 (37.5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>CKD Stage, n (%)</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>476 (91.4)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2432 (93.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>45 (8.6)</t>
+          <t>6 (1.8)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>161 (6.2)</t>
+          <t>140 (4.0)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Diabetes Type, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -984,55 +988,63 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14 (2.7)</t>
+          <t>16 (4.8)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>59 (2.3)</t>
+          <t>177 (5.0)</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Urinary Tract Infection, n (%)</t>
+        </is>
+      </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>207 (39.7)</t>
+          <t>4 (1.2)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>775 (29.9)</t>
+          <t>35 (1.0)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Biliary Tract Infection, n (%)</t>
+        </is>
+      </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>300 (57.6)</t>
+          <t>1 (0.3)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1759 (67.8)</t>
+          <t>9 (0.3)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1040,284 +1052,199 @@
           <t>1.0</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>24 (4.6)</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93 (3.6)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28 (5.4)</t>
+          <t>75 [62,84]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>122 (4.7)</t>
+          <t>68 [57,79]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5 (1.0)</t>
+          <t>7.00 [3.21,10.98]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>29 (1.1)</t>
+          <t>5.79 [3.45,10.65]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>4.46 [2.88,8.77]</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9 (0.3)</t>
+          <t>4.58 [2.92,8.21]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>6 [4,8]</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>5 [3,7]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>69 [57,78]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>70 [60,80]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5.50 [3.13,10.08]</t>
+          <t>0.52 [0.28,0.76]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5.79 [3.38,10.71]</t>
+          <t>0.46 [0.21,0.75]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.83 [2.99,8.52]</t>
+          <t>2.0 [1.0,6.0]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4.38 [2.88,8.00]</t>
+          <t>2.0 [1.0,6.0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>6 [5,9]</t>
+          <t>41.0 [14.5,93.5]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>34.0 [11.0,73.2]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>7 [4,10]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>3.0 [1.0,9.0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0.36 [0.17,0.57]</t>
+          <t>0.25 [0.07,0.53]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.29 [0.14,0.49]</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,8.0]</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,7.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>34.0 [12.0,74.0]</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>36.0 [11.0,76.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,11.0]</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,8.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.27 [0.07,0.52]</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.28 [0.10,0.52]</t>
+          <t>0.29 [0.10,0.54]</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
